--- a/LR3.xlsx
+++ b/LR3.xlsx
@@ -1,21 +1,215 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+  <si>
+    <t>IP-адрес:</t>
+  </si>
+  <si>
+    <t>Маска сети:</t>
+  </si>
+  <si>
+    <t>Обратная маска:</t>
+  </si>
+  <si>
+    <t>Адрес сети:</t>
+  </si>
+  <si>
+    <t>Широковещательный адрес:</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.01111111</t>
+  </si>
+  <si>
+    <t>IP-адрес 1-го узла:</t>
+  </si>
+  <si>
+    <t>IP-адрес последнего узла:</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.01111110</t>
+  </si>
+  <si>
+    <t>192.168.1.127</t>
+  </si>
+  <si>
+    <t>192.168.1.126</t>
+  </si>
+  <si>
+    <t>192.168.1.1</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.00000001</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.00000000</t>
+  </si>
+  <si>
+    <t>192.168.1.129</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10000001</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10000000</t>
+  </si>
+  <si>
+    <t>255.255.255.128 = 25</t>
+  </si>
+  <si>
+    <t>11111111.11111111.11111111.10000000</t>
+  </si>
+  <si>
+    <t>00000000.00000000.00000000.01111111</t>
+  </si>
+  <si>
+    <t>0.0.0.127</t>
+  </si>
+  <si>
+    <t>192.168.1.0/25</t>
+  </si>
+  <si>
+    <t>1 Подсеть 77комп</t>
+  </si>
+  <si>
+    <t>Адрес шлюза:</t>
+  </si>
+  <si>
+    <t>Резерв:</t>
+  </si>
+  <si>
+    <t>192.168.1.78-192.168.1.125</t>
+  </si>
+  <si>
+    <t>2 Подсеть 19комп</t>
+  </si>
+  <si>
+    <t>255.255.255.224 = 27</t>
+  </si>
+  <si>
+    <t>0.0.0.31</t>
+  </si>
+  <si>
+    <t>192.168.1.128/27</t>
+  </si>
+  <si>
+    <t>192.168.1.159</t>
+  </si>
+  <si>
+    <t>192.168.1.158</t>
+  </si>
+  <si>
+    <t>11111111.11111111.11111111.11100000</t>
+  </si>
+  <si>
+    <t>00000000.00000000.00000000.00011111</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10011111</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10011110</t>
+  </si>
+  <si>
+    <t>192.168.1.20-192.168.1.157</t>
+  </si>
+  <si>
+    <t>192.168.1.161</t>
+  </si>
+  <si>
+    <t>3 Подсеть 6комп</t>
+  </si>
+  <si>
+    <t>4 Подсеть 4комп</t>
+  </si>
+  <si>
+    <t>255.255.255.248 = 29</t>
+  </si>
+  <si>
+    <t>0.0.0.7</t>
+  </si>
+  <si>
+    <t>192.168.1.160/29</t>
+  </si>
+  <si>
+    <t>192.168.1.167</t>
+  </si>
+  <si>
+    <t>192.168.1.166</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10100001</t>
+  </si>
+  <si>
+    <t>11111111.11111111.11111111.11111000</t>
+  </si>
+  <si>
+    <t>00000000.00000000.00000000.00000111</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10100000</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10100111</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10100110</t>
+  </si>
+  <si>
+    <t>192.168.1.7-192.168.1.165</t>
+  </si>
+  <si>
+    <t>192.168.1.169</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10101001</t>
+  </si>
+  <si>
+    <t>11111111.11111111.11111111.11111100</t>
+  </si>
+  <si>
+    <t>00000000.00000000.00000000.00000011</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10101000</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10101011</t>
+  </si>
+  <si>
+    <t>11000000.10101000.00000001.10101010</t>
+  </si>
+  <si>
+    <t>192.168.1.168/29</t>
+  </si>
+  <si>
+    <t>192.168.1.175</t>
+  </si>
+  <si>
+    <t>192.168.1.174</t>
+  </si>
+  <si>
+    <t>192.168.1.5-192.168.1.173</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +218,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,21 +244,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +308,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +345,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +380,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +553,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>